--- a/eksamens projekt/data_fælles/Sogn_koordinater.xlsx
+++ b/eksamens projekt/data_fælles/Sogn_koordinater.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresekjaerbulowravens/Documents/GitHub/Eksamen-DAM-Gruppe-24/eksamens projekt/data_fælles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F017B6E4-1214-1E4D-AA08-E9A75C66AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E6CB87-02F1-1A42-AD26-247C7840D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="3440" windowWidth="19420" windowHeight="10300" xr2:uid="{8F9D1BFC-3B78-49FF-BDD7-B62C7C054025}"/>
   </bookViews>
@@ -202,9 +202,6 @@
     <t>55.8903533</t>
   </si>
   <si>
-    <t>101620478</t>
-  </si>
-  <si>
     <t>56.1921723</t>
   </si>
   <si>
@@ -409,12 +406,6 @@
     <t>10.1836898</t>
   </si>
   <si>
-    <t>55.8512163</t>
-  </si>
-  <si>
-    <t>8.1498859</t>
-  </si>
-  <si>
     <t>56.2078167</t>
   </si>
   <si>
@@ -451,12 +442,6 @@
     <t>9.485510</t>
   </si>
   <si>
-    <t>56.2108562</t>
-  </si>
-  <si>
-    <t>8.5309602</t>
-  </si>
-  <si>
     <t>56.1832227</t>
   </si>
   <si>
@@ -550,12 +535,6 @@
     <t>9.9384759</t>
   </si>
   <si>
-    <t>56.212242</t>
-  </si>
-  <si>
-    <t>9.1160272</t>
-  </si>
-  <si>
     <t>56.3527906</t>
   </si>
   <si>
@@ -682,12 +661,6 @@
     <t>9.4484994</t>
   </si>
   <si>
-    <t>56.0023187</t>
-  </si>
-  <si>
-    <t>8.2812202</t>
-  </si>
-  <si>
     <t>55.927863</t>
   </si>
   <si>
@@ -1061,6 +1034,33 @@
   </si>
   <si>
     <t>10.2083063</t>
+  </si>
+  <si>
+    <t>10.1620478</t>
+  </si>
+  <si>
+    <t>56.078781</t>
+  </si>
+  <si>
+    <t>9.6994932</t>
+  </si>
+  <si>
+    <t>8.9181519</t>
+  </si>
+  <si>
+    <t>56.233333</t>
+  </si>
+  <si>
+    <t>56.2084225</t>
+  </si>
+  <si>
+    <t>8.2455826</t>
+  </si>
+  <si>
+    <t>56.2250799</t>
+  </si>
+  <si>
+    <t>9.6633577</t>
   </si>
 </sst>
 </file>
@@ -1099,11 +1099,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,30 +1441,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4117BA32-B156-4BEF-8130-BD2022E1C2F7}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1474,7 +1476,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1485,7 +1487,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1496,7 +1498,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -1507,7 +1509,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1518,7 +1520,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1529,7 +1531,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -1540,7 +1542,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1551,7 +1553,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1562,7 +1564,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -1573,7 +1575,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -1584,7 +1586,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -1595,7 +1597,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -1606,7 +1608,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
@@ -1617,7 +1619,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -1628,7 +1630,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
@@ -1639,7 +1641,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
@@ -1650,7 +1652,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -1661,7 +1663,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
@@ -1672,7 +1674,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
@@ -1683,7 +1685,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -1694,7 +1696,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
@@ -1705,7 +1707,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
@@ -1716,7 +1718,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
@@ -1727,7 +1729,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
@@ -1738,7 +1740,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
@@ -1749,7 +1751,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
@@ -1760,950 +1762,951 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
+      <c r="C29" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>125</v>
+        <v>334</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>139</v>
+        <v>338</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>172</v>
+        <v>340</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>312</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>315</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>319</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="B105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>320</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="B106" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="B107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="B108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>323</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>324</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>325</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="B111" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>326</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>327</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>329</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B112" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>331</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>332</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>333</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>335</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D113" s="2"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
